--- a/data/2021-01-26 COVID-19 Vaccine Data by County.xlsx
+++ b/data/2021-01-26 COVID-19 Vaccine Data by County.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aearl914\Desktop\COVID-19\Daily County Updates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazlicanarslan/Desktop/github_clones/Covid19_VaccinePlanning_RF/Texas_vaccine_distribution_data/vaccine_data_by_county/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43AFF350-F452-4ED5-AABE-7745479C7FF4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC5C871-0014-214E-9C87-094D4A6B06D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1600" windowWidth="28800" windowHeight="14620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
@@ -20,10 +20,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'By County'!$A$1:$K$258</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1544,17 +1553,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showWhiteSpace="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.59765625" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
     <col min="2" max="2" width="121.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>271</v>
       </c>
@@ -1570,7 +1579,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>267</v>
       </c>
@@ -1586,7 +1595,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1594,7 +1603,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1602,7 +1611,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1610,7 +1619,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>305</v>
       </c>
@@ -1618,7 +1627,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>264</v>
       </c>
@@ -1626,7 +1635,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>261</v>
       </c>
@@ -1634,7 +1643,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>265</v>
       </c>
@@ -1642,7 +1651,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>266</v>
       </c>
@@ -1650,7 +1659,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>280</v>
       </c>
@@ -1672,23 +1681,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="14" customWidth="1"/>
-    <col min="2" max="3" width="12.19921875" style="6" customWidth="1"/>
-    <col min="4" max="5" width="20.69921875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" style="6" customWidth="1"/>
+    <col min="2" max="3" width="12.25" style="6" customWidth="1"/>
+    <col min="4" max="5" width="20.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.19921875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.09765625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.796875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="6" customWidth="1"/>
     <col min="11" max="11" width="12" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9.19921875" style="5"/>
+    <col min="12" max="16384" width="9.25" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1723,7 +1734,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>262</v>
       </c>
@@ -1767,7 +1778,7 @@
         <v>9499038</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>299</v>
       </c>
@@ -10743,16 +10754,16 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="24.19921875" customWidth="1"/>
-    <col min="5" max="5" width="21.69921875" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>281</v>
       </c>
@@ -10772,7 +10783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>284</v>
       </c>
@@ -10792,7 +10803,7 @@
         <v>9076</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>284</v>
       </c>
@@ -10812,7 +10823,7 @@
         <v>4922</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>284</v>
       </c>
@@ -10832,7 +10843,7 @@
         <v>14837</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>284</v>
       </c>
@@ -10852,7 +10863,7 @@
         <v>31559</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>284</v>
       </c>
@@ -10872,7 +10883,7 @@
         <v>5938</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>284</v>
       </c>
@@ -10893,7 +10904,7 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>284</v>
       </c>
@@ -10914,7 +10925,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>284</v>
       </c>
@@ -10935,7 +10946,7 @@
       </c>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>284</v>
       </c>
@@ -10956,7 +10967,7 @@
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>284</v>
       </c>
@@ -10977,7 +10988,7 @@
       </c>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>284</v>
       </c>
@@ -10998,7 +11009,7 @@
       </c>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>284</v>
       </c>
@@ -11019,7 +11030,7 @@
       </c>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>284</v>
       </c>
@@ -11040,7 +11051,7 @@
       </c>
       <c r="O14" s="30"/>
     </row>
-    <row r="15" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
         <v>284</v>
       </c>
@@ -11061,7 +11072,7 @@
       </c>
       <c r="O15" s="30"/>
     </row>
-    <row r="16" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>284</v>
       </c>
@@ -11082,7 +11093,7 @@
       </c>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>284</v>
       </c>
@@ -11103,7 +11114,7 @@
       </c>
       <c r="O17" s="30"/>
     </row>
-    <row r="18" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>284</v>
       </c>
@@ -11124,7 +11135,7 @@
       </c>
       <c r="O18" s="30"/>
     </row>
-    <row r="19" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>284</v>
       </c>
@@ -11145,7 +11156,7 @@
       </c>
       <c r="O19" s="30"/>
     </row>
-    <row r="20" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
         <v>284</v>
       </c>
@@ -11166,7 +11177,7 @@
       </c>
       <c r="O20" s="30"/>
     </row>
-    <row r="21" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="23" t="s">
         <v>284</v>
       </c>
@@ -11187,7 +11198,7 @@
       </c>
       <c r="O21" s="30"/>
     </row>
-    <row r="22" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
         <v>284</v>
       </c>
@@ -11208,7 +11219,7 @@
       </c>
       <c r="O22" s="30"/>
     </row>
-    <row r="23" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
         <v>284</v>
       </c>
@@ -11229,7 +11240,7 @@
       </c>
       <c r="O23" s="30"/>
     </row>
-    <row r="24" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
         <v>284</v>
       </c>
@@ -11250,7 +11261,7 @@
       </c>
       <c r="O24" s="30"/>
     </row>
-    <row r="25" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="23" t="s">
         <v>284</v>
       </c>
@@ -11271,7 +11282,7 @@
       </c>
       <c r="O25" s="30"/>
     </row>
-    <row r="26" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="23" t="s">
         <v>284</v>
       </c>
@@ -11292,7 +11303,7 @@
       </c>
       <c r="O26" s="30"/>
     </row>
-    <row r="27" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="23" t="s">
         <v>284</v>
       </c>
@@ -11313,7 +11324,7 @@
       </c>
       <c r="O27" s="30"/>
     </row>
-    <row r="28" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
         <v>284</v>
       </c>
@@ -11334,7 +11345,7 @@
       </c>
       <c r="O28" s="30"/>
     </row>
-    <row r="29" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="23" t="s">
         <v>284</v>
       </c>
@@ -11355,7 +11366,7 @@
       </c>
       <c r="O29" s="30"/>
     </row>
-    <row r="30" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="23" t="s">
         <v>284</v>
       </c>
@@ -11376,7 +11387,7 @@
       </c>
       <c r="O30" s="30"/>
     </row>
-    <row r="31" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
         <v>284</v>
       </c>
@@ -11397,7 +11408,7 @@
       </c>
       <c r="O31" s="30"/>
     </row>
-    <row r="32" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="23" t="s">
         <v>291</v>
       </c>
@@ -11418,7 +11429,7 @@
       </c>
       <c r="O32" s="30"/>
     </row>
-    <row r="33" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="23" t="s">
         <v>291</v>
       </c>
@@ -11439,7 +11450,7 @@
       </c>
       <c r="O33" s="30"/>
     </row>
-    <row r="34" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
         <v>291</v>
       </c>
@@ -11460,7 +11471,7 @@
       </c>
       <c r="O34" s="30"/>
     </row>
-    <row r="35" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="23" t="s">
         <v>291</v>
       </c>
@@ -11481,7 +11492,7 @@
       </c>
       <c r="O35" s="30"/>
     </row>
-    <row r="36" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
         <v>291</v>
       </c>
@@ -11502,7 +11513,7 @@
       </c>
       <c r="O36" s="30"/>
     </row>
-    <row r="37" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="23" t="s">
         <v>291</v>
       </c>
@@ -11523,7 +11534,7 @@
       </c>
       <c r="O37" s="30"/>
     </row>
-    <row r="38" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="23" t="s">
         <v>291</v>
       </c>
@@ -11544,7 +11555,7 @@
       </c>
       <c r="O38" s="30"/>
     </row>
-    <row r="39" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="23" t="s">
         <v>291</v>
       </c>
@@ -11565,7 +11576,7 @@
       </c>
       <c r="O39" s="30"/>
     </row>
-    <row r="40" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="23" t="s">
         <v>291</v>
       </c>
@@ -11586,7 +11597,7 @@
       </c>
       <c r="O40" s="30"/>
     </row>
-    <row r="41" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="23" t="s">
         <v>291</v>
       </c>
@@ -11607,7 +11618,7 @@
       </c>
       <c r="O41" s="30"/>
     </row>
-    <row r="42" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
         <v>291</v>
       </c>
@@ -11628,7 +11639,7 @@
       </c>
       <c r="O42" s="30"/>
     </row>
-    <row r="43" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="23" t="s">
         <v>291</v>
       </c>
@@ -11649,7 +11660,7 @@
       </c>
       <c r="O43" s="30"/>
     </row>
-    <row r="44" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="23" t="s">
         <v>291</v>
       </c>
@@ -11670,7 +11681,7 @@
       </c>
       <c r="O44" s="30"/>
     </row>
-    <row r="45" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="23" t="s">
         <v>291</v>
       </c>
@@ -11690,7 +11701,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="23" t="s">
         <v>291</v>
       </c>
@@ -11711,7 +11722,7 @@
       </c>
       <c r="O46" s="30"/>
     </row>
-    <row r="47" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="23" t="s">
         <v>291</v>
       </c>
@@ -11732,7 +11743,7 @@
       </c>
       <c r="O47" s="30"/>
     </row>
-    <row r="48" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="23" t="s">
         <v>291</v>
       </c>
@@ -11752,7 +11763,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="23" t="s">
         <v>291</v>
       </c>
@@ -11773,7 +11784,7 @@
       </c>
       <c r="O49" s="30"/>
     </row>
-    <row r="50" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="23" t="s">
         <v>291</v>
       </c>
@@ -11794,7 +11805,7 @@
       </c>
       <c r="O50" s="30"/>
     </row>
-    <row r="51" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="23" t="s">
         <v>291</v>
       </c>
@@ -11814,7 +11825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="23" t="s">
         <v>291</v>
       </c>
@@ -11835,7 +11846,7 @@
       </c>
       <c r="O52" s="30"/>
     </row>
-    <row r="53" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="23" t="s">
         <v>291</v>
       </c>
@@ -11856,7 +11867,7 @@
       </c>
       <c r="O53" s="30"/>
     </row>
-    <row r="54" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="23" t="s">
         <v>291</v>
       </c>
@@ -11877,7 +11888,7 @@
       </c>
       <c r="O54" s="30"/>
     </row>
-    <row r="55" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="23" t="s">
         <v>291</v>
       </c>
@@ -11898,7 +11909,7 @@
       </c>
       <c r="O55" s="30"/>
     </row>
-    <row r="56" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="23" t="s">
         <v>291</v>
       </c>
@@ -11919,7 +11930,7 @@
       </c>
       <c r="O56" s="30"/>
     </row>
-    <row r="57" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="23" t="s">
         <v>291</v>
       </c>
@@ -11939,7 +11950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="23" t="s">
         <v>291</v>
       </c>
@@ -11960,7 +11971,7 @@
       </c>
       <c r="O58" s="30"/>
     </row>
-    <row r="59" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="23" t="s">
         <v>291</v>
       </c>
@@ -11981,7 +11992,7 @@
       </c>
       <c r="O59" s="30"/>
     </row>
-    <row r="60" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="23" t="s">
         <v>291</v>
       </c>
@@ -12002,7 +12013,7 @@
       </c>
       <c r="O60" s="30"/>
     </row>
-    <row r="61" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="23" t="s">
         <v>291</v>
       </c>
@@ -12023,7 +12034,7 @@
       </c>
       <c r="O61" s="30"/>
     </row>
-    <row r="62" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="23" t="s">
         <v>289</v>
       </c>
@@ -12044,7 +12055,7 @@
       </c>
       <c r="O62" s="30"/>
     </row>
-    <row r="63" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="23" t="s">
         <v>289</v>
       </c>
@@ -12064,7 +12075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="23" t="s">
         <v>289</v>
       </c>
@@ -12085,7 +12096,7 @@
       </c>
       <c r="O64" s="30"/>
     </row>
-    <row r="65" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="23" t="s">
         <v>289</v>
       </c>
@@ -12106,7 +12117,7 @@
       </c>
       <c r="O65" s="30"/>
     </row>
-    <row r="66" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="23" t="s">
         <v>289</v>
       </c>
@@ -12126,7 +12137,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="23" t="s">
         <v>289</v>
       </c>
@@ -12147,7 +12158,7 @@
       </c>
       <c r="O67" s="30"/>
     </row>
-    <row r="68" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="23" t="s">
         <v>289</v>
       </c>
@@ -12168,7 +12179,7 @@
       </c>
       <c r="O68" s="30"/>
     </row>
-    <row r="69" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="23" t="s">
         <v>289</v>
       </c>
@@ -12188,7 +12199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="23" t="s">
         <v>289</v>
       </c>
@@ -12209,7 +12220,7 @@
       </c>
       <c r="O70" s="30"/>
     </row>
-    <row r="71" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="23" t="s">
         <v>289</v>
       </c>
@@ -12230,7 +12241,7 @@
       </c>
       <c r="O71" s="30"/>
     </row>
-    <row r="72" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="23" t="s">
         <v>289</v>
       </c>
@@ -12250,7 +12261,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="23" t="s">
         <v>289</v>
       </c>
@@ -12271,7 +12282,7 @@
       </c>
       <c r="O73" s="30"/>
     </row>
-    <row r="74" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="23" t="s">
         <v>289</v>
       </c>
@@ -12292,7 +12303,7 @@
       </c>
       <c r="O74" s="30"/>
     </row>
-    <row r="75" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="23" t="s">
         <v>289</v>
       </c>
@@ -12313,7 +12324,7 @@
       </c>
       <c r="O75" s="30"/>
     </row>
-    <row r="76" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="23" t="s">
         <v>289</v>
       </c>
@@ -12334,7 +12345,7 @@
       </c>
       <c r="O76" s="30"/>
     </row>
-    <row r="77" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="23" t="s">
         <v>289</v>
       </c>
@@ -12355,7 +12366,7 @@
       </c>
       <c r="O77" s="30"/>
     </row>
-    <row r="78" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="23" t="s">
         <v>289</v>
       </c>
@@ -12376,7 +12387,7 @@
       </c>
       <c r="O78" s="30"/>
     </row>
-    <row r="79" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="23" t="s">
         <v>289</v>
       </c>
@@ -12396,7 +12407,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="23" t="s">
         <v>289</v>
       </c>
@@ -12416,7 +12427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="23" t="s">
         <v>289</v>
       </c>
@@ -12436,7 +12447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="23" t="s">
         <v>289</v>
       </c>
@@ -12456,7 +12467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="23" t="s">
         <v>289</v>
       </c>
@@ -12476,7 +12487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="23" t="s">
         <v>289</v>
       </c>
@@ -12496,7 +12507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="23" t="s">
         <v>289</v>
       </c>
@@ -12516,7 +12527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="23" t="s">
         <v>289</v>
       </c>
@@ -12536,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="23" t="s">
         <v>289</v>
       </c>
@@ -12556,7 +12567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="23" t="s">
         <v>289</v>
       </c>
@@ -12576,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="23" t="s">
         <v>289</v>
       </c>
@@ -12596,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="23" t="s">
         <v>289</v>
       </c>
@@ -12616,7 +12627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="23" t="s">
         <v>262</v>
       </c>
